--- a/trunk/Temp/Sedex - Web_Estimation.xlsx
+++ b/trunk/Temp/Sedex - Web_Estimation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\new-pro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data-Store\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="572"/>
   </bookViews>
   <sheets>
     <sheet name="Sedex - Web interface" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Project name</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Search User</t>
   </si>
   <si>
-    <t>Total effort (man days)</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>System Management</t>
   </si>
   <si>
-    <t>System config</t>
-  </si>
-  <si>
     <t>User Management</t>
   </si>
   <si>
@@ -131,20 +125,10 @@
     <t>Forgot Password</t>
   </si>
   <si>
-    <t>Import multiple Users into sytem using CSV format. Or 
-update existing User</t>
-  </si>
-  <si>
     <t>Create/Register New User Account</t>
   </si>
   <si>
-    <t>Module 01</t>
-  </si>
-  <si>
     <t>Manage  Users/Partners’ permissions</t>
-  </si>
-  <si>
-    <t>Manage App Info</t>
   </si>
   <si>
     <t>Manage App Price</t>
@@ -158,15 +142,6 @@
   </si>
   <si>
     <t>Manage App Ratings and Comments</t>
-  </si>
-  <si>
-    <t>Sedex - An  APP exchange (Download/Upload) product</t>
-  </si>
-  <si>
-    <t>Send email to User/Partner when needed</t>
-  </si>
-  <si>
-    <t>Email Function</t>
   </si>
   <si>
     <t>App info:
@@ -176,6 +151,105 @@
   </si>
   <si>
     <t>Group Management (Manage User Groups)</t>
+  </si>
+  <si>
+    <t>System configuration</t>
+  </si>
+  <si>
+    <t>- Server/hosting/infrastructure/licenses (if  any) are bought by the customer
+- Technologies/Frameworks: Java, Spring, Hibernate (DB mapping), MySQL…</t>
+  </si>
+  <si>
+    <t>4-8 search conditions</t>
+  </si>
+  <si>
+    <t>To send emails to Users/Admin when needed</t>
+  </si>
+  <si>
+    <t>Sending email to User to reset password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total effort (man days): </t>
+  </si>
+  <si>
+    <t>Import multiple Users into sytem or update existing User using CSV format.</t>
+  </si>
+  <si>
+    <t>Create New Group</t>
+  </si>
+  <si>
+    <t>Edit Group</t>
+  </si>
+  <si>
+    <t>Delete Group</t>
+  </si>
+  <si>
+    <t>View Group Info</t>
+  </si>
+  <si>
+    <t>With number of Users in the Group</t>
+  </si>
+  <si>
+    <t>- Do not support nested Group (Group in Group)</t>
+  </si>
+  <si>
+    <t>Send email to User after creation</t>
+  </si>
+  <si>
+    <t>- User info has 10-20 fields. 
+- User need to confirm his/her registration by clicking on a link in an email</t>
+  </si>
+  <si>
+    <t>Can reuse somethings from "Create/Register New User 
+Account" function above</t>
+  </si>
+  <si>
+    <t>- Logical delete (just mark as deleted)
+- Need to delete some relating info: Assigned Roles/Rights…</t>
+  </si>
+  <si>
+    <t>Using Java mail library</t>
+  </si>
+  <si>
+    <t>Assign Users to Group, remove User from 
+Group</t>
+  </si>
+  <si>
+    <t>Send mail system</t>
+  </si>
+  <si>
+    <t>Search Apps</t>
+  </si>
+  <si>
+    <t>Display Apps by group/categories/search conditions</t>
+  </si>
+  <si>
+    <t>View App Info (with Ratings/Comments)</t>
+  </si>
+  <si>
+    <t>Delete App</t>
+  </si>
+  <si>
+    <t>Manage Favourite Apps</t>
+  </si>
+  <si>
+    <t>Edit App Info</t>
+  </si>
+  <si>
+    <t>- For Android apps: Install automatically after download completion
+- For other apps: User has to manually install after download completion (we will research about "Automatic install App" after download completion later if needed)</t>
+  </si>
+  <si>
+    <t>We will build a brand-new SSO system, using one of tenologies: JOSSO, CAS...</t>
+  </si>
+  <si>
+    <t>App Exchange Workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also delete relating info </t>
+  </si>
+  <si>
+    <t>Sedex - An APP exchange (Download/Upload) product</t>
   </si>
 </sst>
 </file>
@@ -200,8 +274,8 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,13 +296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,20 +384,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,14 +400,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -350,6 +436,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -632,615 +727,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E75"/>
+  <dimension ref="B2:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:D4"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="15" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="2:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="25">
         <v>42172</v>
       </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11">
+        <f>SUM(E8,E22,E26,E35,E39,E51)</f>
+        <v>108.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="1">
-        <f>SUM(E8:E20)</f>
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="1">
+        <f>SUM(E9:E21)</f>
+        <v>42.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>10</v>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>13</v>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <v>3</v>
+      <c r="E11" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>11</v>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <v>1</v>
+      <c r="E12" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>5</v>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>1.5</v>
+      <c r="E13" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>12</v>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <v>1.5</v>
+      <c r="E14" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>3</v>
+      <c r="B15" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>1</v>
+      <c r="E15" s="5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>4</v>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <v>0.25</v>
+      <c r="E16" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>42</v>
+      <c r="B17" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="6"/>
+      <c r="E17" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="1">
-        <f>SUM(E22:E28)</f>
-        <v>0</v>
-      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="1">
+        <f>SUM(E23:E25)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="1">
-        <f>SUM(E30:E36)</f>
-        <v>0</v>
+      <c r="B26" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="1">
+        <f>SUM(E27:E34)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="2">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="2"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="1">
+        <f>SUM(E36:E38)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="1">
-        <f>SUM(E38:E40)</f>
-        <v>0</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="6"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="B39" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="1">
+        <f>SUM(E40:E44)</f>
+        <v>7.5</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="B40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
-        <v>31</v>
+      <c r="B41" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="1">
-        <f>SUM(E42:E49)</f>
-        <v>0</v>
+      <c r="D41" s="13"/>
+      <c r="E41" s="2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="2">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="B45" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="1">
+        <f>SUM(E46:E50)</f>
+        <v>3.25</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="5">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="5">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="1">
-        <f>SUM(E51:E54)</f>
-        <v>0</v>
-      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="B51" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="1">
+        <f>SUM(E54:E62)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="8"/>
+      <c r="B52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="20"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="20"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="E53" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="1">
-        <f>SUM(E56:E64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E57" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="C59" s="20"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="E59" s="5">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="E60" s="5">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
-      <c r="C61" s="8"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
-      <c r="C62" s="8"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="1">
-        <f>SUM(E66:E69)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="1">
-        <f>SUM(E71:E74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3">
-        <f>SUM(E7,E21,E29,E37,E41,E55,E70)</f>
-        <v>8.25</v>
-      </c>
+      <c r="E62" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Temp/Sedex - Web_Estimation.xlsx
+++ b/trunk/Temp/Sedex - Web_Estimation.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="572"/>
   </bookViews>
   <sheets>
-    <sheet name="Sedex - Web interface" sheetId="2" r:id="rId1"/>
+    <sheet name="Master" sheetId="4" r:id="rId1"/>
+    <sheet name="Sedex - Web interface" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>Project name</t>
   </si>
@@ -50,9 +51,6 @@
     <t>Estimation (man-day)</t>
   </si>
   <si>
-    <t>Common Tasks</t>
-  </si>
-  <si>
     <t>Concept (Graphic) Design</t>
   </si>
   <si>
@@ -129,9 +127,6 @@
   </si>
   <si>
     <t>Manage  Users/Partners’ permissions</t>
-  </si>
-  <si>
-    <t>Manage App Price</t>
   </si>
   <si>
     <t>At this moment, all apps are free. But in future, some apps 
@@ -156,10 +151,6 @@
     <t>System configuration</t>
   </si>
   <si>
-    <t>- Server/hosting/infrastructure/licenses (if  any) are bought by the customer
-- Technologies/Frameworks: Java, Spring, Hibernate (DB mapping), MySQL…</t>
-  </si>
-  <si>
     <t>4-8 search conditions</t>
   </si>
   <si>
@@ -240,9 +231,6 @@
 - For other apps: User has to manually install after download completion (we will research about "Automatic install App" after download completion later if needed)</t>
   </si>
   <si>
-    <t>We will build a brand-new SSO system, using one of tenologies: JOSSO, CAS...</t>
-  </si>
-  <si>
     <t>App Exchange Workflow</t>
   </si>
   <si>
@@ -250,6 +238,41 @@
   </si>
   <si>
     <t>Sedex - An APP exchange (Download/Upload) product</t>
+  </si>
+  <si>
+    <t>Common Tasks/Functions</t>
+  </si>
+  <si>
+    <t>Landing Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Server/hosting/infrastructure/licenses (if  any) are bought by the customer
+- Technologies/Frameworks: Java, Spring, Hibernate (DB mapping), MySQL…
+- System supports Web responsive </t>
+  </si>
+  <si>
+    <t>Performance Test</t>
+  </si>
+  <si>
+    <t>Manage App Prices</t>
+  </si>
+  <si>
+    <t>Intergrate with an existing system</t>
+  </si>
+  <si>
+    <t>Web interface</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Windows Phone</t>
+  </si>
+  <si>
+    <t>Total Effort (man-days)</t>
   </si>
 </sst>
 </file>
@@ -281,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -429,9 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -447,6 +473,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,11 +757,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E62"/>
+  <dimension ref="B1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="24">
+        <v>42172</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2">
+        <f>'Sedex - Web interface'!E2</f>
+        <v>138.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2">
+        <f>SUM(C7:C12)</f>
+        <v>138.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,625 +879,606 @@
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="2" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11">
+        <f>SUM(E4,E18,E22,E31,E35,E48)</f>
+        <v>138.25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="25">
-        <v>42172</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="B4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="1">
+        <f>SUM(E5:E17)</f>
+        <v>60.75</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="11">
-        <f>SUM(E8,E22,E26,E35,E39,E51)</f>
-        <v>108.25</v>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="1">
-        <f>SUM(E9:E21)</f>
-        <v>42.75</v>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="5">
-        <v>8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E15" s="5">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="1">
+        <f>SUM(E19:E21)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="1">
+        <f>SUM(E23:E30)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="1">
-        <f>SUM(E23:E25)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="13"/>
+      <c r="D24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="1">
-        <f>SUM(E27:E34)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="13"/>
       <c r="E27" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="2">
-        <v>1.5</v>
-      </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="1">
+        <f>SUM(E32:E34)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="2">
-        <v>2.5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="2"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="1">
-        <f>SUM(E36:E38)</f>
-        <v>4</v>
+        <f>SUM(E36:E41)</f>
+        <v>14.5</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="5">
+        <v>69</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="5"/>
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="5"/>
+      <c r="B38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="1">
-        <f>SUM(E40:E44)</f>
-        <v>7.5</v>
+      <c r="B39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="2">
-        <v>1.5</v>
-      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1.5</v>
+      <c r="B42" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="1">
+        <f>SUM(E43:E47)</f>
+        <v>3.25</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="2">
-        <v>3.5</v>
+        <v>45</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="1">
-        <f>SUM(E46:E50)</f>
-        <v>3.25</v>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="6"/>
       <c r="E46" s="5">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="5">
-        <v>1</v>
+      <c r="B48" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="1">
+        <f>SUM(E51:E59)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="6"/>
       <c r="E49" s="5">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
+      <c r="B50" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="C50" s="20"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="1">
-        <f>SUM(E54:E62)</f>
-        <v>28</v>
+      <c r="E50" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="6"/>
       <c r="E52" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="8"/>
       <c r="E53" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="6"/>
       <c r="E54" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C55" s="20"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="E55" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="5">
-        <v>7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="B58" s="2"/>
       <c r="C58" s="20"/>
-      <c r="D58" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="5">
-        <v>4</v>
-      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="20"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="5"/>
+      <c r="E59" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B51:D51"/>
+  <mergeCells count="6">
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Temp/Sedex - Web_Estimation.xlsx
+++ b/trunk/Temp/Sedex - Web_Estimation.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="572"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="572" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="4" r:id="rId1"/>
     <sheet name="Sedex - Web interface" sheetId="2" r:id="rId2"/>
+    <sheet name="Sedex - Web interface (2)" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
   <si>
     <t>Project name</t>
   </si>
@@ -266,20 +267,23 @@
     <t>Android</t>
   </si>
   <si>
+    <t>Total Effort</t>
+  </si>
+  <si>
     <t>iOS</t>
   </si>
   <si>
     <t>Windows Phone</t>
   </si>
   <si>
-    <t>Total Effort (man-days)</t>
+    <t>Effort (man-days)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,8 +307,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,12 +343,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -409,11 +427,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -476,7 +503,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D13"/>
+  <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,6 +840,12 @@
       <c r="C5" s="18"/>
       <c r="D5" s="12"/>
     </row>
+    <row r="6" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="31"/>
+    </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
         <v>74</v>
@@ -824,38 +863,31 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="2">
-        <f>SUM(C7:C12)</f>
+      <c r="B11" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(C7:C10)</f>
         <v>138.25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -865,9 +897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,4 +1515,628 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11">
+        <f>SUM(E4,E18,E22,E31,E35,E48)</f>
+        <v>138.25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="1">
+        <f>SUM(E5:E17)</f>
+        <v>60.75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="1">
+        <f>SUM(E19:E21)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="1">
+        <f>SUM(E23:E30)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="1">
+        <f>SUM(E32:E34)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="1">
+        <f>SUM(E36:E41)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="1">
+        <f>SUM(E43:E47)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="1">
+        <f>SUM(E51:E59)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B48:D48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/Temp/Sedex - Web_Estimation.xlsx
+++ b/trunk/Temp/Sedex - Web_Estimation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="572" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t>Project name</t>
   </si>
@@ -277,13 +277,23 @@
   </si>
   <si>
     <t>Effort (man-days)</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>- For Android and iOS apps: Install automatically after download completion
+- For other apps: User has to manually install after download completion (we will research about "Automatic install App" after download completion later if needed)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +321,13 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -440,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -510,6 +527,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,7 +871,7 @@
       </c>
       <c r="C7" s="2">
         <f>'Sedex - Web interface'!E2</f>
-        <v>138.25</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -879,7 +898,7 @@
       </c>
       <c r="C11" s="2">
         <f>SUM(C7:C10)</f>
-        <v>138.25</v>
+        <v>135.5</v>
       </c>
     </row>
   </sheetData>
@@ -895,11 +914,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E59"/>
+  <dimension ref="B2:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +936,7 @@
       </c>
       <c r="E2" s="11">
         <f>SUM(E4,E18,E22,E31,E35,E48)</f>
-        <v>138.25</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -942,7 +961,7 @@
       <c r="D4" s="28"/>
       <c r="E4" s="1">
         <f>SUM(E5:E17)</f>
-        <v>60.75</v>
+        <v>45.75</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1072,16 +1091,10 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="5">
-        <v>15</v>
-      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
@@ -1091,7 +1104,7 @@
       <c r="D18" s="28"/>
       <c r="E18" s="1">
         <f>SUM(E19:E21)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -1111,10 +1124,14 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
@@ -1124,7 +1141,7 @@
       <c r="D22" s="28"/>
       <c r="E22" s="1">
         <f>SUM(E23:E30)</f>
-        <v>28</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1150,7 +1167,7 @@
         <v>53</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -1210,10 +1227,14 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="34">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
@@ -1223,26 +1244,28 @@
       <c r="D31" s="28"/>
       <c r="E31" s="1">
         <f>SUM(E32:E34)</f>
-        <v>4</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C32" s="20"/>
-      <c r="D32" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C33" s="20"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -1258,7 +1281,7 @@
       <c r="D35" s="28"/>
       <c r="E35" s="1">
         <f>SUM(E36:E41)</f>
-        <v>14.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -1268,7 +1291,7 @@
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1278,7 +1301,7 @@
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -1288,7 +1311,7 @@
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -1314,10 +1337,14 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
@@ -1329,7 +1356,7 @@
       <c r="D42" s="17"/>
       <c r="E42" s="1">
         <f>SUM(E43:E47)</f>
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -1375,10 +1402,14 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C47" s="20"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="33">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="26" t="s">
@@ -1387,8 +1418,8 @@
       <c r="C48" s="27"/>
       <c r="D48" s="28"/>
       <c r="E48" s="1">
-        <f>SUM(E51:E59)</f>
-        <v>28</v>
+        <f>SUM(E51:E57)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -1408,7 +1439,7 @@
       <c r="C50" s="20"/>
       <c r="D50" s="6"/>
       <c r="E50" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="60" x14ac:dyDescent="0.25">
@@ -1433,75 +1464,61 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="6"/>
       <c r="E53" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="E54" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C55" s="20"/>
-      <c r="D55" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="D55" s="6"/>
       <c r="E55" s="5">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="D56" s="6"/>
       <c r="E56" s="5">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>66</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="5"/>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/trunk/Temp/Sedex - Web_Estimation.xlsx
+++ b/trunk/Temp/Sedex - Web_Estimation.xlsx
@@ -14,7 +14,6 @@
   <sheets>
     <sheet name="Master" sheetId="4" r:id="rId1"/>
     <sheet name="Sedex - Web interface" sheetId="2" r:id="rId2"/>
-    <sheet name="Sedex - Web interface (2)" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Project name</t>
   </si>
@@ -70,9 +69,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>System Test</t>
-  </si>
-  <si>
     <t>Bulk import/update User</t>
   </si>
   <si>
@@ -85,9 +81,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>10-15% development effort</t>
-  </si>
-  <si>
     <t>App Management</t>
   </si>
   <si>
@@ -128,10 +121,6 @@
   </si>
   <si>
     <t>Manage  Users/Partners’ permissions</t>
-  </si>
-  <si>
-    <t>At this moment, all apps are free. But in future, some apps 
-may have prices</t>
   </si>
   <si>
     <t>Single Sign On (SSO)</t>
@@ -228,10 +217,6 @@
     <t>Edit App Info</t>
   </si>
   <si>
-    <t>- For Android apps: Install automatically after download completion
-- For other apps: User has to manually install after download completion (we will research about "Automatic install App" after download completion later if needed)</t>
-  </si>
-  <si>
     <t>App Exchange Workflow</t>
   </si>
   <si>
@@ -255,9 +240,6 @@
     <t>Performance Test</t>
   </si>
   <si>
-    <t>Manage App Prices</t>
-  </si>
-  <si>
     <t>Intergrate with an existing system</t>
   </si>
   <si>
@@ -287,6 +269,15 @@
   <si>
     <t>- For Android and iOS apps: Install automatically after download completion
 - For other apps: User has to manually install after download completion (we will research about "Automatic install App" after download completion later if needed)</t>
+  </si>
+  <si>
+    <t>Web-service APIs</t>
+  </si>
+  <si>
+    <t>RESTful APIs</t>
+  </si>
+  <si>
+    <t>Support Web responsive</t>
   </si>
 </sst>
 </file>
@@ -457,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -529,6 +520,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" s="29"/>
     </row>
@@ -841,13 +833,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" s="23"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="24">
         <v>42172</v>
@@ -861,44 +853,44 @@
     </row>
     <row r="6" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6" s="31"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2">
         <f>'Sedex - Web interface'!E2</f>
-        <v>135.5</v>
+        <v>154.5</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C7:C10)</f>
-        <v>135.5</v>
+        <v>154.5</v>
       </c>
     </row>
   </sheetData>
@@ -914,11 +906,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E57"/>
+  <dimension ref="B2:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57:XFD57"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,11 +924,11 @@
   <sheetData>
     <row r="2" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D2" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="11">
-        <f>SUM(E4,E18,E22,E31,E35,E48)</f>
-        <v>135.5</v>
+        <f>SUM(E4,E18,E21,E30,E34,E47,E57)</f>
+        <v>154.5</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -955,13 +947,13 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="28"/>
       <c r="E4" s="1">
         <f>SUM(E5:E17)</f>
-        <v>45.75</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -988,10 +980,12 @@
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1056,10 +1050,10 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="5">
@@ -1068,13 +1062,13 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5">
         <v>4</v>
@@ -1082,7 +1076,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1098,18 +1092,18 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="1">
-        <f>SUM(E19:E21)</f>
+        <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1118,190 +1112,194 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="1">
-        <f>SUM(E23:E30)</f>
+      <c r="B21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="1">
+        <f>SUM(E22:E29)</f>
         <v>33.5</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="E23" s="2">
-        <v>7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14" t="s">
-        <v>53</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="13"/>
       <c r="E24" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>54</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="D26" s="13"/>
       <c r="E26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="E27" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>15</v>
+      <c r="B28" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="D28" s="14"/>
       <c r="E28" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="2">
-        <v>3</v>
+      <c r="D29" s="13"/>
+      <c r="E29" s="34">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="34">
+      <c r="B30" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="1">
+        <f>SUM(E31:E33)</f>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="5">
         <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="1">
-        <f>SUM(E32:E34)</f>
-        <v>4.75</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5">
-        <v>4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="20"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="5">
-        <v>0.75</v>
-      </c>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="5"/>
+      <c r="B34" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="1">
+        <f>SUM(E35:E40)</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="1">
-        <f>SUM(E36:E41)</f>
-        <v>19</v>
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="2">
+        <v>4.5</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="2">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="2">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -1309,54 +1307,54 @@
         <v>29</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="E38" s="2">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="D39" s="13"/>
       <c r="E39" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="2">
-        <v>3</v>
+      <c r="B41" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="1">
+        <f>SUM(E42:E46)</f>
+        <v>3.75</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="1">
-        <f>SUM(E43:E47)</f>
-        <v>3.75</v>
+      <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -1364,796 +1362,194 @@
         <v>45</v>
       </c>
       <c r="C43" s="20"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E43" s="5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C44" s="20"/>
-      <c r="D44" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="D44" s="6"/>
       <c r="E44" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="6"/>
       <c r="E45" s="5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="5">
-        <v>0.25</v>
+      <c r="E46" s="33">
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="33">
-        <v>0.5</v>
+      <c r="B47" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="1">
+        <f>SUM(E50:E56)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="1">
-        <f>SUM(E51:E57)</f>
-        <v>29</v>
+      <c r="B48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>21</v>
+      <c r="B49" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="6"/>
       <c r="E49" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C50" s="20"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="E50" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="D51" s="6"/>
       <c r="E51" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="D52" s="6"/>
       <c r="E52" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="E53" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="20"/>
-      <c r="D54" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="D54" s="6"/>
       <c r="E54" s="5">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="D55" s="6"/>
       <c r="E55" s="5">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>66</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="5">
-        <v>1.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="5">
-        <v>6</v>
+      <c r="B57" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="1">
+        <f>SUM(E58:E59)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="35"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B31:D31"/>
+  <mergeCells count="7">
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="11">
-        <f>SUM(E4,E18,E22,E31,E35,E48)</f>
-        <v>138.25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="1">
-        <f>SUM(E5:E17)</f>
-        <v>60.75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="1">
-        <f>SUM(E19:E21)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="1">
-        <f>SUM(E23:E30)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="1">
-        <f>SUM(E32:E34)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="1">
-        <f>SUM(E36:E41)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="1">
-        <f>SUM(E43:E47)</f>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="1">
-        <f>SUM(E51:E59)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B48:D48"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/trunk/Temp/Sedex - Web_Estimation.xlsx
+++ b/trunk/Temp/Sedex - Web_Estimation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>Project name</t>
   </si>
@@ -174,21 +174,10 @@
     <t>- Do not support nested Group (Group in Group)</t>
   </si>
   <si>
-    <t>Send email to User after creation</t>
-  </si>
-  <si>
     <t>- User info has 10-20 fields. 
 - User need to confirm his/her registration by clicking on a link in an email</t>
   </si>
   <si>
-    <t>Can reuse somethings from "Create/Register New User 
-Account" function above</t>
-  </si>
-  <si>
-    <t>- Logical delete (just mark as deleted)
-- Need to delete some relating info: Assigned Roles/Rights…</t>
-  </si>
-  <si>
     <t>Using Java mail library</t>
   </si>
   <si>
@@ -209,9 +198,6 @@
   </si>
   <si>
     <t>Delete App</t>
-  </si>
-  <si>
-    <t>Manage Favourite Apps</t>
   </si>
   <si>
     <t>Edit App Info</t>
@@ -249,9 +235,6 @@
     <t>Android</t>
   </si>
   <si>
-    <t>Total Effort</t>
-  </si>
-  <si>
     <t>iOS</t>
   </si>
   <si>
@@ -278,13 +261,29 @@
   </si>
   <si>
     <t>Support Web responsive</t>
+  </si>
+  <si>
+    <t>Can reuse somethings from "Create/Register New User Account" function above</t>
+  </si>
+  <si>
+    <t>- Logical delete (just mark as deleted)
+- Need to delete some relating info: Assigned Roles/Rights/Group…</t>
+  </si>
+  <si>
+    <t>Send email to User after finish</t>
+  </si>
+  <si>
+    <t>Total Effort:</t>
+  </si>
+  <si>
+    <t>Manage (Add, List) Favourite Apps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +308,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="1"/>
@@ -324,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,12 +352,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -511,16 +511,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,7 +805,7 @@
   <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D2" s="29"/>
     </row>
@@ -833,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" s="23"/>
     </row>
@@ -852,45 +853,45 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="31"/>
+      <c r="B6" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2">
         <f>'Sedex - Web interface'!E2</f>
-        <v>154.5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="2">
+    <row r="11" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="36">
         <f>SUM(C7:C10)</f>
-        <v>154.5</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -909,8 +910,8 @@
   <dimension ref="B2:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +919,7 @@
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="3" width="56.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="64.7109375" style="15" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -928,7 +929,7 @@
       </c>
       <c r="E2" s="11">
         <f>SUM(E4,E18,E21,E30,E34,E47,E57)</f>
-        <v>154.5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -947,13 +948,13 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="28"/>
       <c r="E4" s="1">
         <f>SUM(E5:E17)</f>
-        <v>52.75</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -981,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5">
@@ -1053,7 +1054,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="5">
@@ -1062,26 +1063,26 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1113,7 +1114,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1129,7 +1130,7 @@
       <c r="D21" s="28"/>
       <c r="E21" s="1">
         <f>SUM(E22:E29)</f>
-        <v>33.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1137,13 +1138,13 @@
         <v>30</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -1152,22 +1153,22 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -1206,7 +1207,7 @@
     </row>
     <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
@@ -1216,11 +1217,11 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="34">
+      <c r="E29" s="32">
         <v>5</v>
       </c>
     </row>
@@ -1247,7 +1248,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="6"/>
@@ -1269,12 +1270,12 @@
       <c r="D34" s="28"/>
       <c r="E34" s="1">
         <f>SUM(E35:E40)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -1289,7 +1290,7 @@
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1299,7 +1300,7 @@
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="2">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -1316,7 +1317,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -1326,7 +1327,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -1344,7 +1345,7 @@
       <c r="D41" s="17"/>
       <c r="E41" s="1">
         <f>SUM(E42:E46)</f>
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
@@ -1366,7 +1367,7 @@
         <v>46</v>
       </c>
       <c r="E43" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -1383,20 +1384,22 @@
       <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="20"/>
+      <c r="C45" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="D45" s="6"/>
       <c r="E45" s="5">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="33">
-        <v>0.5</v>
+      <c r="E46" s="31">
+        <v>0.75</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -1417,12 +1420,12 @@
       <c r="C48" s="20"/>
       <c r="D48" s="6"/>
       <c r="E48" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="6"/>
@@ -1432,7 +1435,7 @@
     </row>
     <row r="50" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="8" t="s">
@@ -1457,7 +1460,7 @@
         <v>20</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="5">
@@ -1466,11 +1469,11 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E53" s="5">
         <v>4</v>
@@ -1478,7 +1481,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="6"/>
@@ -1488,10 +1491,10 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="5">
@@ -1500,7 +1503,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1510,7 +1513,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C57" s="27"/>
       <c r="D57" s="28"/>
@@ -1521,9 +1524,9 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="C58" s="33"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5">
         <v>10</v>
@@ -1531,7 +1534,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>

--- a/trunk/Temp/Sedex - Web_Estimation.xlsx
+++ b/trunk/Temp/Sedex - Web_Estimation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>Project name</t>
   </si>
@@ -188,13 +188,7 @@
     <t>Send mail system</t>
   </si>
   <si>
-    <t>Search Apps</t>
-  </si>
-  <si>
     <t>Display Apps by group/categories/search conditions</t>
-  </si>
-  <si>
-    <t>View App Info (with Ratings/Comments)</t>
   </si>
   <si>
     <t>Delete App</t>
@@ -254,9 +248,6 @@
 - For other apps: User has to manually install after download completion (we will research about "Automatic install App" after download completion later if needed)</t>
   </si>
   <si>
-    <t>Web-service APIs</t>
-  </si>
-  <si>
     <t>RESTful APIs</t>
   </si>
   <si>
@@ -277,6 +268,18 @@
   </si>
   <si>
     <t>Manage (Add, List) Favourite Apps</t>
+  </si>
+  <si>
+    <t>Login/Logout</t>
+  </si>
+  <si>
+    <t>App Ratings and Comments</t>
+  </si>
+  <si>
+    <t>View App Details (with Ratings/Comments)</t>
+  </si>
+  <si>
+    <t>List Apps</t>
   </si>
 </sst>
 </file>
@@ -490,38 +493,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,28 +827,28 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="29"/>
+      <c r="C2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="23"/>
+      <c r="C3" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="31">
         <v>42172</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
@@ -853,45 +856,45 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="34"/>
+      <c r="B6" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
-        <v>65</v>
+      <c r="B7" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C7" s="2">
         <f>'Sedex - Web interface'!E2</f>
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
-        <v>68</v>
-      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="36">
+      <c r="B11" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="28">
         <f>SUM(C7:C10)</f>
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -907,11 +910,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E59"/>
+  <dimension ref="B2:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +932,7 @@
       </c>
       <c r="E2" s="11">
         <f>SUM(E4,E18,E21,E30,E34,E47,E57)</f>
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -947,11 +950,11 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="1">
         <f>SUM(E5:E17)</f>
         <v>54.75</v>
@@ -982,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5">
@@ -1054,7 +1057,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="5">
@@ -1077,7 +1080,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1092,11 +1095,11 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="1">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1123,11 +1126,11 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="1">
         <f>SUM(E22:E29)</f>
         <v>35</v>
@@ -1141,7 +1144,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2">
         <v>8</v>
@@ -1153,7 +1156,7 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2">
         <v>2.5</v>
@@ -1164,7 +1167,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="2">
@@ -1217,20 +1220,20 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="32">
+      <c r="E29" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="1">
         <f>SUM(E31:E33)</f>
         <v>5.75</v>
@@ -1248,7 +1251,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="6"/>
@@ -1263,11 +1266,11 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="1">
         <f>SUM(E35:E40)</f>
         <v>19</v>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -1317,7 +1320,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -1327,7 +1330,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -1385,7 +1388,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="5">
@@ -1394,20 +1397,20 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="31">
+      <c r="E46" s="24">
         <v>0.75</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="28"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
       <c r="E47" s="1">
         <f>SUM(E50:E56)</f>
         <v>29</v>
@@ -1425,7 +1428,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="6"/>
@@ -1435,7 +1438,7 @@
     </row>
     <row r="50" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="8" t="s">
@@ -1460,7 +1463,7 @@
         <v>20</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="5">
@@ -1469,11 +1472,11 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53" s="5">
         <v>4</v>
@@ -1481,7 +1484,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="6"/>
@@ -1491,10 +1494,10 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="5">
@@ -1503,7 +1506,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1512,45 +1515,135 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28"/>
+      <c r="B57" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="1">
-        <f>SUM(E58:E59)</f>
-        <v>12</v>
+        <f>SUM(E58:E71)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="C58" s="26"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="C59" s="26"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="5">
         <v>2</v>
       </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Temp/Sedex - Web_Estimation.xlsx
+++ b/trunk/Temp/Sedex - Web_Estimation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>Project name</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>List Apps</t>
+  </si>
+  <si>
+    <t>Register New User Account</t>
+  </si>
+  <si>
+    <t>List Installed Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Apps are installed by current login User </t>
   </si>
 </sst>
 </file>
@@ -867,7 +876,7 @@
       </c>
       <c r="C7" s="2">
         <f>'Sedex - Web interface'!E2</f>
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -894,7 +903,7 @@
       </c>
       <c r="C11" s="28">
         <f>SUM(C7:C10)</f>
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -910,11 +919,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E71"/>
+  <dimension ref="B2:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,8 +940,8 @@
         <v>40</v>
       </c>
       <c r="E2" s="11">
-        <f>SUM(E4,E18,E21,E30,E34,E47,E57)</f>
-        <v>178</v>
+        <f>SUM(E4,E18,E21,E30,E33,E46,E57)</f>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -957,7 +966,7 @@
       <c r="D4" s="36"/>
       <c r="E4" s="1">
         <f>SUM(E5:E17)</f>
-        <v>54.75</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -989,7 +998,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1085,7 +1094,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1235,7 +1244,7 @@
       <c r="C30" s="35"/>
       <c r="D30" s="36"/>
       <c r="E30" s="1">
-        <f>SUM(E31:E33)</f>
+        <f>SUM(E31:E32)</f>
         <v>5.75</v>
       </c>
     </row>
@@ -1260,67 +1269,71 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="5"/>
+      <c r="B33" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="1">
+        <f>SUM(E34:E39)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="1">
-        <f>SUM(E35:E40)</f>
-        <v>19</v>
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="2">
+        <v>4.5</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="2">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="E37" s="2">
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="D38" s="13"/>
       <c r="E38" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -1329,55 +1342,57 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="2">
-        <v>3</v>
+      <c r="B40" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="1">
+        <f>SUM(E41:E45)</f>
+        <v>5.25</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="1">
-        <f>SUM(E42:E46)</f>
-        <v>5.25</v>
+      <c r="B41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C42" s="20"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E42" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="20"/>
-      <c r="D43" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="D43" s="6"/>
       <c r="E43" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="D44" s="6"/>
       <c r="E44" s="5">
         <v>1</v>
@@ -1385,101 +1400,101 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C45" s="20"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="5">
-        <v>1</v>
+      <c r="E45" s="24">
+        <v>0.75</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="24">
-        <v>0.75</v>
+      <c r="B46" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="1">
+        <f>SUM(E49:E56)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="1">
-        <f>SUM(E50:E56)</f>
-        <v>29</v>
+      <c r="B47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>19</v>
+      <c r="B48" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="6"/>
       <c r="E48" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="E51" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E52" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="6" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E53" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -1521,28 +1536,28 @@
       <c r="C57" s="35"/>
       <c r="D57" s="36"/>
       <c r="E57" s="1">
-        <f>SUM(E58:E71)</f>
-        <v>31</v>
+        <f>SUM(E58:E66)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
@@ -1552,7 +1567,7 @@
       <c r="C60" s="26"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -1579,61 +1594,45 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
       <c r="C64" s="26"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C65" s="26"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="26"/>
+      <c r="B66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="5"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="5"/>
+      <c r="E66" s="5">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1641,8 +1640,8 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Temp/Sedex - Web_Estimation.xlsx
+++ b/trunk/Temp/Sedex - Web_Estimation.xlsx
@@ -922,8 +922,8 @@
   <dimension ref="B2:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/Temp/Sedex - Web_Estimation.xlsx
+++ b/trunk/Temp/Sedex - Web_Estimation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="450"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>Project name</t>
   </si>
@@ -212,11 +212,6 @@
     <t>Landing Page</t>
   </si>
   <si>
-    <t xml:space="preserve">- Server/hosting/infrastructure/licenses (if  any) are bought by the customer
-- Technologies/Frameworks: Java, Spring, Hibernate (DB mapping), MySQL…
-- System supports Web responsive </t>
-  </si>
-  <si>
     <t>Performance Test</t>
   </si>
   <si>
@@ -289,6 +284,21 @@
   </si>
   <si>
     <t xml:space="preserve">Display Apps are installed by current login User </t>
+  </si>
+  <si>
+    <t>List Top (5-start) Apps</t>
+  </si>
+  <si>
+    <t>Export Users</t>
+  </si>
+  <si>
+    <t>Export CSV</t>
+  </si>
+  <si>
+    <t>- Server/hosting/infrastructure/licenses (if  any) are bought by the customer
+- Technologies/Frameworks: Java, Spring, Spring MVC, AngularJS, Hibernate (DB mapping), MySQL
+- System supports Web responsive
+- System only supports 1 language, English for example. To support multilingual, it will takes a little more effort</t>
   </si>
 </sst>
 </file>
@@ -460,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -517,9 +527,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D11"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,13 +833,14 @@
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
     <col min="4" max="4" width="57.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -840,78 +848,81 @@
         <v>57</v>
       </c>
       <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="2:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="31">
         <v>42172</v>
       </c>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="18"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="33"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="32"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2">
         <f>'Sedex - Web interface'!E2</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>66</v>
-      </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="28">
         <f>SUM(C7:C10)</f>
-        <v>189</v>
+        <v>202.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -919,11 +930,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E66"/>
+  <dimension ref="B2:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,8 +951,8 @@
         <v>40</v>
       </c>
       <c r="E2" s="11">
-        <f>SUM(E4,E18,E21,E30,E33,E46,E57)</f>
-        <v>189</v>
+        <f>SUM(E4,E18,E21,E31,E34,E47,E59)</f>
+        <v>202.5</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -959,14 +970,14 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="1">
         <f>SUM(E5:E17)</f>
-        <v>58.75</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -986,7 +997,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -994,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5">
@@ -1066,7 +1077,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="5">
@@ -1084,12 +1095,12 @@
         <v>38</v>
       </c>
       <c r="E15" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1104,11 +1115,11 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="1">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
@@ -1126,7 +1137,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1135,14 +1146,14 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="1">
-        <f>SUM(E22:E29)</f>
-        <v>35</v>
+        <f>SUM(E22:E30)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1153,7 +1164,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2">
         <v>8</v>
@@ -1165,10 +1176,10 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1176,11 +1187,11 @@
         <v>15</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -1190,7 +1201,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -1214,126 +1225,128 @@
         <v>41</v>
       </c>
       <c r="E27" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="D28" s="14"/>
       <c r="E28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="1">
-        <f>SUM(E31:E32)</f>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="1">
+        <f>SUM(E32:E33)</f>
         <v>5.75</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="5">
-        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5">
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="1">
-        <f>SUM(E34:E39)</f>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="1">
+        <f>SUM(E35:E40)</f>
         <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="2">
-        <v>4.5</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="2">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="D37" s="13"/>
       <c r="E37" s="2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="E38" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -1342,57 +1355,55 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C41" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="1">
-        <f>SUM(E41:E45)</f>
+      <c r="D41" s="17"/>
+      <c r="E41" s="1">
+        <f>SUM(E42:E46)</f>
         <v>5.25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="5">
-        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C42" s="20"/>
-      <c r="D42" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="D42" s="6"/>
       <c r="E42" s="5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43" s="20"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E43" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C44" s="20"/>
       <c r="D44" s="6"/>
       <c r="E44" s="5">
         <v>1</v>
@@ -1400,120 +1411,120 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="24">
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="24">
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="34" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="1">
-        <f>SUM(E49:E56)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="1">
+        <f>SUM(E50:E58)</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="6"/>
       <c r="E48" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="8" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E50" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="C51" s="20"/>
       <c r="D51" s="6"/>
       <c r="E51" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="5">
         <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="5">
-        <v>4</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="6" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E53" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C54" s="20"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="E54" s="5">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C55" s="20"/>
       <c r="D55" s="6"/>
       <c r="E55" s="5">
         <v>1.5</v>
@@ -1521,87 +1532,85 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="C56" s="20"/>
       <c r="D56" s="6"/>
       <c r="E56" s="5">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="1">
-        <f>SUM(E58:E66)</f>
-        <v>36</v>
+      <c r="B57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="5">
-        <v>2</v>
+      <c r="B59" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="1">
+        <f>SUM(E60:E69)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="6"/>
       <c r="E61" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C62" s="26"/>
-      <c r="D62" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="D62" s="6"/>
       <c r="E62" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C63" s="26"/>
-      <c r="D63" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D63" s="6"/>
       <c r="E63" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -1609,28 +1618,62 @@
         <v>80</v>
       </c>
       <c r="C64" s="26"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E64" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C65" s="26"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="E65" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C66" s="26"/>
       <c r="D66" s="6"/>
       <c r="E66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1638,11 +1681,11 @@
   <mergeCells count="7">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
